--- a/MCQ/DBT MCQ DOC/60 DBT - M ANS Sheet.xlsx
+++ b/MCQ/DBT MCQ DOC/60 DBT - M ANS Sheet.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\infoserver1\FacultyCommon\Saleel\MCQ\DBT MCQ DOC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="7">
   <si>
     <t>Ques.No.</t>
   </si>
@@ -41,15 +36,12 @@
   <si>
     <t>Ans</t>
   </si>
-  <si>
-    <t>DBT - M???</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +257,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -283,17 +286,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,7 +346,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,10 +378,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,7 +412,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -597,84 +587,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="13" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="15"/>
-    </row>
-    <row r="2" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18"/>
-    </row>
-    <row r="3" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+    <row r="1" spans="2:13" ht="15" customHeight="1">
+      <c r="B1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="20"/>
+    </row>
+    <row r="2" spans="2:13" ht="4.5" customHeight="1">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
+    </row>
+    <row r="3" spans="2:13" ht="17.25" customHeight="1">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="21"/>
-    </row>
-    <row r="4" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="2:13" ht="20.25" customHeight="1">
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="21"/>
-    </row>
-    <row r="5" spans="2:13" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="2:13" ht="3" customHeight="1">
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -688,7 +678,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="30">
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
@@ -726,7 +716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1">
       <c r="B7" s="7">
         <v>1</v>
       </c>
@@ -752,7 +742,7 @@
       </c>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1">
       <c r="B8" s="7">
         <v>2</v>
       </c>
@@ -778,7 +768,7 @@
       </c>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1">
       <c r="B9" s="7">
         <v>3</v>
       </c>
@@ -804,7 +794,7 @@
       </c>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1">
       <c r="B10" s="7">
         <v>4</v>
       </c>
@@ -830,7 +820,7 @@
       </c>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="16.5" customHeight="1">
       <c r="B11" s="7">
         <v>5</v>
       </c>
@@ -856,7 +846,7 @@
       </c>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16.5" customHeight="1">
       <c r="B12" s="7">
         <v>6</v>
       </c>
@@ -882,7 +872,7 @@
       </c>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="16.5" customHeight="1">
       <c r="B13" s="7">
         <v>7</v>
       </c>
@@ -908,7 +898,7 @@
       </c>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="16.5" customHeight="1">
       <c r="B14" s="7">
         <v>8</v>
       </c>
@@ -934,7 +924,7 @@
       </c>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="16.5" customHeight="1">
       <c r="B15" s="7">
         <v>9</v>
       </c>
@@ -960,7 +950,7 @@
       </c>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="B16" s="10">
         <v>10</v>
       </c>
@@ -986,72 +976,72 @@
       </c>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="18"/>
-    </row>
-    <row r="20" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+    <row r="17" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="18" spans="2:13" ht="15" customHeight="1">
+      <c r="B18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="20"/>
+    </row>
+    <row r="19" spans="2:13" ht="4.5" customHeight="1">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="23"/>
+    </row>
+    <row r="20" spans="2:13" ht="17.25" customHeight="1">
+      <c r="B20" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="21"/>
-    </row>
-    <row r="21" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="2:13" ht="20.25" customHeight="1">
+      <c r="B21" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" spans="2:13" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="2:13" ht="3" customHeight="1">
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1065,7 +1055,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="30">
       <c r="B23" s="6" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="16.5" customHeight="1">
       <c r="B24" s="7">
         <v>1</v>
       </c>
@@ -1129,7 +1119,7 @@
       </c>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" ht="16.5" customHeight="1">
       <c r="B25" s="7">
         <v>2</v>
       </c>
@@ -1155,7 +1145,7 @@
       </c>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" ht="16.5" customHeight="1">
       <c r="B26" s="7">
         <v>3</v>
       </c>
@@ -1181,7 +1171,7 @@
       </c>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" ht="16.5" customHeight="1">
       <c r="B27" s="7">
         <v>4</v>
       </c>
@@ -1207,7 +1197,7 @@
       </c>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" ht="16.5" customHeight="1">
       <c r="B28" s="7">
         <v>5</v>
       </c>
@@ -1233,7 +1223,7 @@
       </c>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" ht="16.5" customHeight="1">
       <c r="B29" s="7">
         <v>6</v>
       </c>
@@ -1259,7 +1249,7 @@
       </c>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" ht="16.5" customHeight="1">
       <c r="B30" s="7">
         <v>7</v>
       </c>
@@ -1285,7 +1275,7 @@
       </c>
       <c r="M30" s="8"/>
     </row>
-    <row r="31" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" ht="16.5" customHeight="1">
       <c r="B31" s="7">
         <v>8</v>
       </c>
@@ -1311,7 +1301,7 @@
       </c>
       <c r="M31" s="8"/>
     </row>
-    <row r="32" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" ht="16.5" customHeight="1">
       <c r="B32" s="7">
         <v>9</v>
       </c>
@@ -1337,7 +1327,7 @@
       </c>
       <c r="M32" s="8"/>
     </row>
-    <row r="33" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="B33" s="10">
         <v>10</v>
       </c>
@@ -1363,72 +1353,72 @@
       </c>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="s">
+    <row r="34" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="35" spans="2:13" ht="15" customHeight="1">
+      <c r="B35" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="15"/>
-    </row>
-    <row r="36" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="18"/>
-    </row>
-    <row r="37" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="20"/>
+    </row>
+    <row r="36" spans="2:13" ht="4.5" customHeight="1">
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="23"/>
+    </row>
+    <row r="37" spans="2:13" ht="17.25" customHeight="1">
+      <c r="B37" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20" t="s">
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="21"/>
-    </row>
-    <row r="38" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="22" t="s">
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="15"/>
+    </row>
+    <row r="38" spans="2:13" ht="20.25" customHeight="1">
+      <c r="B38" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="21"/>
-    </row>
-    <row r="39" spans="2:13" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="15"/>
+    </row>
+    <row r="39" spans="2:13" ht="3" customHeight="1">
       <c r="B39" s="4"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1442,7 +1432,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" ht="30">
       <c r="B40" s="6" t="s">
         <v>0</v>
       </c>
@@ -1480,7 +1470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" ht="16.5" customHeight="1">
       <c r="B41" s="7">
         <v>1</v>
       </c>
@@ -1506,7 +1496,7 @@
       </c>
       <c r="M41" s="8"/>
     </row>
-    <row r="42" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" ht="16.5" customHeight="1">
       <c r="B42" s="7">
         <v>2</v>
       </c>
@@ -1532,7 +1522,7 @@
       </c>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" ht="16.5" customHeight="1">
       <c r="B43" s="7">
         <v>3</v>
       </c>
@@ -1558,7 +1548,7 @@
       </c>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" ht="16.5" customHeight="1">
       <c r="B44" s="7">
         <v>4</v>
       </c>
@@ -1584,7 +1574,7 @@
       </c>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" ht="16.5" customHeight="1">
       <c r="B45" s="7">
         <v>5</v>
       </c>
@@ -1610,7 +1600,7 @@
       </c>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" ht="16.5" customHeight="1">
       <c r="B46" s="7">
         <v>6</v>
       </c>
@@ -1636,7 +1626,7 @@
       </c>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" ht="16.5" customHeight="1">
       <c r="B47" s="7">
         <v>7</v>
       </c>
@@ -1662,7 +1652,7 @@
       </c>
       <c r="M47" s="8"/>
     </row>
-    <row r="48" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" ht="16.5" customHeight="1">
       <c r="B48" s="7">
         <v>8</v>
       </c>
@@ -1688,7 +1678,7 @@
       </c>
       <c r="M48" s="8"/>
     </row>
-    <row r="49" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" ht="16.5" customHeight="1">
       <c r="B49" s="7">
         <v>9</v>
       </c>
@@ -1714,7 +1704,7 @@
       </c>
       <c r="M49" s="8"/>
     </row>
-    <row r="50" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="B50" s="10">
         <v>10</v>
       </c>
@@ -1742,6 +1732,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:M2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B18:M19"/>
     <mergeCell ref="B20:I20"/>
     <mergeCell ref="J20:M21"/>
     <mergeCell ref="B21:I21"/>
@@ -1749,11 +1744,6 @@
     <mergeCell ref="B37:I37"/>
     <mergeCell ref="J37:M38"/>
     <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B1:M2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B18:M19"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
